--- a/trunk/Tasks/Task Assignment.xlsx
+++ b/trunk/Tasks/Task Assignment.xlsx
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,48 +167,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,9 +182,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -235,20 +195,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +507,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,17 +520,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:5">
@@ -579,82 +539,82 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -663,95 +623,95 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="5">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -790,13 +750,12 @@
       <c r="G29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/trunk/Tasks/Task Assignment.xlsx
+++ b/trunk/Tasks/Task Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -104,12 +104,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +117,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,7 +125,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,17 +198,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,6 +222,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -294,6 +305,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,42 +516,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -550,7 +563,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -560,7 +573,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -570,7 +583,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -579,50 +592,50 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
@@ -636,7 +649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -649,7 +662,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>2</v>
       </c>
@@ -662,7 +675,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -675,11 +688,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="11">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>4</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -688,24 +701,24 @@
       <c r="D18" s="11"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="11">
+    <row r="19" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="11">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>6</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -714,48 +727,46 @@
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D18:D20"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -763,24 +774,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
